--- a/data/trans_orig/P14B25-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B25-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3025BFE5-F397-4340-817E-BC94C151A6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A65CE28-3A3C-4C4B-9470-88A676B25A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9ED2D7F8-708E-4BE2-B6D3-B3AC96049F3D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE6529EF-EFC7-4E07-AAD6-FEA7277190C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,16 +75,16 @@
     <t>77,01%</t>
   </si>
   <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>61,04%</t>
+    <t>67,66%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>83,68%</t>
   </si>
   <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>22,99%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>7,95%</t>
@@ -117,16 +117,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>38,96%</t>
+    <t>32,34%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>76,62%</t>
   </si>
   <si>
-    <t>30,66%</t>
+    <t>43,15%</t>
   </si>
   <si>
     <t>58,02%</t>
@@ -147,16 +147,16 @@
     <t>69,69%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>69,34%</t>
+    <t>56,85%</t>
   </si>
   <si>
     <t>41,98%</t>
@@ -165,10 +165,10 @@
     <t>30,31%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,55 +198,55 @@
     <t>80,79%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>84,68%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>82,34%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -258,175 +258,175 @@
     <t>79,37%</t>
   </si>
   <si>
-    <t>43,54%</t>
+    <t>49,25%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
     <t>48,66%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>89,34%</t>
+    <t>79,67%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BC070D-4A56-45DD-BEF3-56670BF76864}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C9A52B-2A3E-4212-816D-952D633FD8CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AE27E-5CA5-4665-AAB0-41E894A10BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89495C54-57F9-472D-9DFD-814D27A314E0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1889,7 +1889,7 @@
         <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -1898,13 +1898,13 @@
         <v>20622</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1919,13 @@
         <v>6889</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -1934,13 +1934,13 @@
         <v>4704</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -1949,13 +1949,13 @@
         <v>11593</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2026,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2038,7 @@
         <v>1039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>25</v>
@@ -2053,10 +2053,10 @@
         <v>3795</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2080,7 +2080,7 @@
         <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>

--- a/data/trans_orig/P14B25-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B25-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A65CE28-3A3C-4C4B-9470-88A676B25A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C1A386-BAA9-441B-990B-AC45C1E19224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE6529EF-EFC7-4E07-AAD6-FEA7277190C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAEB804C-9AD8-4B74-AD8F-7DA17C952A76}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="132">
   <si>
     <t>Población cuyos problemas mentales le limita en 2012 (Tasa respuesta: 0,69%)</t>
   </si>
@@ -75,16 +75,16 @@
     <t>77,01%</t>
   </si>
   <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>67,66%</t>
+    <t>60,97%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -93,10 +93,10 @@
     <t>83,68%</t>
   </si>
   <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,10 +105,10 @@
     <t>22,99%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>7,95%</t>
@@ -117,16 +117,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,34%</t>
+    <t>39,03%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>76,62%</t>
   </si>
   <si>
-    <t>43,15%</t>
+    <t>30,37%</t>
   </si>
   <si>
     <t>58,02%</t>
@@ -147,16 +147,16 @@
     <t>69,69%</t>
   </si>
   <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>56,85%</t>
+    <t>69,63%</t>
   </si>
   <si>
     <t>41,98%</t>
@@ -165,10 +165,10 @@
     <t>30,31%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,157 +198,163 @@
     <t>80,79%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>84,68%</t>
   </si>
   <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>82,34%</t>
   </si>
   <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>17,66%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyos problemas mentales le limita en 2015 (Tasa respuesta: 0,91%)</t>
+    <t>Población cuyos problemas mentales le limita en 2016 (Tasa respuesta: 0,91%)</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>49,25%</t>
+    <t>42,46%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>50,75%</t>
+    <t>57,54%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>36,59%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>64,01%</t>
   </si>
   <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>37,99%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
   </si>
   <si>
     <t>33,41%</t>
   </si>
   <si>
-    <t>63,41%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
   </si>
   <si>
     <t>35,99%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -360,7 +366,7 @@
     <t>79,4%</t>
   </si>
   <si>
-    <t>20,33%</t>
+    <t>22,83%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -372,61 +378,61 @@
     <t>20,6%</t>
   </si>
   <si>
-    <t>79,67%</t>
+    <t>77,17%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
 </sst>
 </file>
@@ -838,7 +844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C9A52B-2A3E-4212-816D-952D633FD8CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C2DC7-16D7-4A6B-84E4-1E65DDC37EEA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1589,7 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89495C54-57F9-472D-9DFD-814D27A314E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4634D7E-0EBF-4C1D-BBF9-E42B9B151A10}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1889,7 +1895,7 @@
         <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -1898,13 +1904,13 @@
         <v>20622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1925,13 @@
         <v>6889</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -1934,13 +1940,13 @@
         <v>4704</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -1949,13 +1955,13 @@
         <v>11593</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2032,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2044,7 @@
         <v>1039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>25</v>
@@ -2053,10 +2059,10 @@
         <v>3795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2080,7 +2086,7 @@
         <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2089,7 +2095,7 @@
         <v>985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
@@ -2104,13 +2110,13 @@
         <v>985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2184,13 @@
         <v>22447</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2193,13 +2199,13 @@
         <v>23793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2208,13 +2214,13 @@
         <v>46240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2235,13 @@
         <v>9084</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2244,13 +2250,13 @@
         <v>9963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2259,13 +2265,13 @@
         <v>19047</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
